--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine Cour des comptes\test git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\testMinSais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CC8C97-9711-4E67-9B92-D35A3696BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3F53B-9D91-474A-81E0-F1256D25178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -44,12 +44,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +387,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\testMinSais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3F53B-9D91-474A-81E0-F1256D25178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DAEB1E-6396-4D45-A4B3-8B51CCC662E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -44,7 +44,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +54,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -70,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +397,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,40 +416,40 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\testMinSais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DAEB1E-6396-4D45-A4B3-8B51CCC662E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676616D-B024-4188-AF6B-29748D4D24ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +60,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,10 +118,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,69 +446,69 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -468,8 +517,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676616D-B024-4188-AF6B-29748D4D24ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396CF4E-DF3A-4070-982B-C04A53968ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,7 +102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -129,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +454,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="C2:D4"/>
+      <selection activeCell="G3" sqref="G3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,8 +486,8 @@
       <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -488,8 +496,8 @@
       <c r="D4" s="9"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -498,8 +506,8 @@
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -508,8 +516,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396CF4E-DF3A-4070-982B-C04A53968ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B269212-7DB2-47AA-98E0-887CA24CC830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -109,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,70 +454,70 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H6"/>
+      <selection activeCell="D3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -525,8 +525,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B269212-7DB2-47AA-98E0-887CA24CC830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1764C313-1327-4751-A5BB-9549A3D2F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -45,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,12 +60,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -96,12 +90,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -109,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -136,7 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,70 +447,70 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -525,8 +518,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1764C313-1327-4751-A5BB-9549A3D2F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1995A-C067-41E0-A9D4-5A855996D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -45,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -130,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +454,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,8 +482,8 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="7"/>
@@ -485,8 +492,8 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1995A-C067-41E0-A9D4-5A855996D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231C8DE-21F5-42DD-8DE3-C79BB11C627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +461,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D4"/>
+      <selection activeCell="E3" sqref="E3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231C8DE-21F5-42DD-8DE3-C79BB11C627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09363014-6D6D-4A06-B075-E61C8A12B85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -143,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +462,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,27 +481,27 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09363014-6D6D-4A06-B075-E61C8A12B85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEAD67-382A-4BCF-AD69-B25E1B3ACDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -52,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,12 +80,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,8 +137,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="3"/>
@@ -478,54 +472,54 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -533,9 +527,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEAD67-382A-4BCF-AD69-B25E1B3ACDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF6A2E-2B68-4B4E-B000-50803080DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -52,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -139,6 +145,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,30 +472,30 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="9"/>
       <c r="H3" s="6"/>
     </row>
@@ -531,9 +539,6 @@
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF6A2E-2B68-4B4E-B000-50803080DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADCBC2-094C-4516-8D95-147A2AB11483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -146,7 +151,8 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +470,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,9 +487,9 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="9"/>
@@ -491,9 +497,9 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9"/>
@@ -513,7 +519,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADCBC2-094C-4516-8D95-147A2AB11483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEAFC1E-A6C5-4B97-B893-8B747E67B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -152,7 +158,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,9 +494,9 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="9"/>
@@ -497,9 +504,9 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEAFC1E-A6C5-4B97-B893-8B747E67B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A56A95-4977-4B00-9F86-2E79E55F4673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -160,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="12"/>
@@ -492,7 +499,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -502,7 +509,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
@@ -511,8 +518,9 @@
       <c r="F3" s="12"/>
       <c r="G3" s="9"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="11"/>
@@ -522,7 +530,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
@@ -532,7 +540,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
@@ -542,7 +550,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A56A95-4977-4B00-9F86-2E79E55F4673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F2D79-922A-4CB2-ADCF-B382B402D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +165,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -167,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,66 +487,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="12"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
@@ -550,7 +556,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -559,6 +565,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
+      <c r="K7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F2D79-922A-4CB2-ADCF-B382B402D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE4C87-FDBE-48A8-B4AC-6A51105984BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -172,7 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +483,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,47 +497,61 @@
       <c r="F1" s="11"/>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -555,6 +562,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -565,7 +575,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE4C87-FDBE-48A8-B4AC-6A51105984BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCA692-63A2-47C2-BAE5-D0229DFAF972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -579,6 +586,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCA692-63A2-47C2-BAE5-D0229DFAF972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524DAFC-513A-4D1C-BFF6-6C831A92DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,12 +133,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -172,7 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -586,9 +579,6 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="16"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524DAFC-513A-4D1C-BFF6-6C831A92DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DCF57-EF7C-4CC5-973F-E1ED58DB63CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,9 +543,9 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -549,9 +556,9 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -562,9 +569,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -575,9 +582,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DCF57-EF7C-4CC5-973F-E1ED58DB63CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9BA9A-608E-4F04-B150-988DC5E2E06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9BA9A-608E-4F04-B150-988DC5E2E06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B678F8A-E48A-4698-B796-CE0E781E283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B678F8A-E48A-4698-B796-CE0E781E283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132BD2B2-3FF3-4D39-A691-0E6BAAD4240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132BD2B2-3FF3-4D39-A691-0E6BAAD4240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754C9B7-EEB9-42A8-B383-4C06F1C442CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754C9B7-EEB9-42A8-B383-4C06F1C442CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35405826-8F57-42A8-82A5-4B652F9BDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35405826-8F57-42A8-82A5-4B652F9BDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390DAE77-911D-447F-A6AD-3E35BBA37DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390DAE77-911D-447F-A6AD-3E35BBA37DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB27B0-B81B-474C-BB8E-BBB25E688B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB27B0-B81B-474C-BB8E-BBB25E688B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59816BAE-FD65-4340-9051-C71F9A8F55AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59816BAE-FD65-4340-9051-C71F9A8F55AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2CCA0-38D7-4A78-80C6-BE19F050FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2CCA0-38D7-4A78-80C6-BE19F050FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28990D-F348-497C-A1C1-B046B0CA14A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,10 +503,10 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -517,9 +517,9 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -530,9 +530,9 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -543,9 +543,9 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -556,9 +556,9 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28990D-F348-497C-A1C1-B046B0CA14A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7CCF9-4FA9-4027-9309-6F9A46B5FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7CCF9-4FA9-4027-9309-6F9A46B5FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D1097-148B-41CA-83E0-78870729FF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -173,6 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +497,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,10 +533,10 @@
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -539,10 +546,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D1097-148B-41CA-83E0-78870729FF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBCC020-5BB4-439B-8756-912F228B4496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBCC020-5BB4-439B-8756-912F228B4496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157DB7D-7173-47D7-9409-8B3605D25A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157DB7D-7173-47D7-9409-8B3605D25A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92595450-7EAE-4C5E-B5B8-BDCB1BFB9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +103,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -171,15 +165,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +489,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,67 +497,67 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -576,9 +568,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -589,9 +581,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92595450-7EAE-4C5E-B5B8-BDCB1BFB9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A42937-1FB4-4307-B610-89EF83C75EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,90 +51,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,22 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -486,104 +395,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F20D5-60F3-4332-8017-66C02ACEF617}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A42937-1FB4-4307-B610-89EF83C75EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBFA782-7B8C-4939-AA31-7FD9D629DB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +61,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -77,10 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,58 +406,58 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N1" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBFA782-7B8C-4939-AA31-7FD9D629DB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11A721-3D93-48C5-831A-72C681E4DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,8 +86,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -412,116 +412,116 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11A721-3D93-48C5-831A-72C681E4DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AA9A0-2FAC-4F26-B319-1D9FAE3A5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,8 +87,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +446,8 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -462,8 +462,8 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AA9A0-2FAC-4F26-B319-1D9FAE3A5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A740A-E775-4DA4-8AB4-58D235CD8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A740A-E775-4DA4-8AB4-58D235CD8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D2396-E570-4071-BB6D-ACE6051153C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -83,12 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +413,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,12 +427,12 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -436,12 +443,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -452,76 +459,76 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D2396-E570-4071-BB6D-ACE6051153C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC79C23-DFFF-4E11-ABC6-E5DC40C18A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC79C23-DFFF-4E11-ABC6-E5DC40C18A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9B86E-142A-4B2E-B682-92FD47E32ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +76,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -89,13 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +420,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N4" sqref="I4:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,12 +482,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -491,12 +498,12 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -507,12 +514,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -523,12 +530,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichier_principal.xlsx
+++ b/fichier_principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\planc\OneDrive\Bureau\saisine_cour_des_comptes\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9B86E-142A-4B2E-B682-92FD47E32ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A7D92-67BA-476D-B758-CF200C2A4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D76452DA-D71C-4DB6-9F9E-7DC227EC48E4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +79,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -103,6 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +427,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="I4:N7"/>
+      <selection activeCell="E1" sqref="E1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,10 +437,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -446,10 +453,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -462,10 +469,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -478,10 +485,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -494,10 +501,10 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
